--- a/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
+++ b/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\challenge\House_Prices_Advanced_Regression_Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3445246-E4A1-4BAF-9FCC-A55B30099B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01314AC-6EC4-4D01-9FA8-32E1C68CCBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC850185-87C0-4159-BE0E-47F0A5872F9C}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Loại bỏ hết các cột bị thiếu </t>
   </si>
   <si>
-    <t>Không làm gì cả</t>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
+++ b/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\challenge\House_Prices_Advanced_Regression_Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01314AC-6EC4-4D01-9FA8-32E1C68CCBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ACDA66-8098-4153-8BEA-894DBE578205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC850185-87C0-4159-BE0E-47F0A5872F9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -59,10 +59,22 @@
     <t>Feature</t>
   </si>
   <si>
-    <t xml:space="preserve">Loại bỏ hết các cột bị thiếu </t>
-  </si>
-  <si>
     <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t>V1_2</t>
+  </si>
+  <si>
+    <t>Xóa các cột bị thiếu</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Xóa các cột có dữ liệu thiếu trên 50%,điền trung vị cho các cột có dữ liệu dưới 50% bị thiếu</t>
   </si>
 </sst>
 </file>
@@ -441,16 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D04272-26EA-43C9-810D-DDBF6A3663A5}">
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,10 +499,44 @@
         <v>0.40637000000000001</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
+++ b/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\challenge\House_Prices_Advanced_Regression_Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ACDA66-8098-4153-8BEA-894DBE578205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A3837-923F-48E6-B30D-D68B51E18D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC850185-87C0-4159-BE0E-47F0A5872F9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Model</t>
   </si>
@@ -62,9 +62,6 @@
     <t>None</t>
   </si>
   <si>
-    <t xml:space="preserve">None </t>
-  </si>
-  <si>
     <t>V1_2</t>
   </si>
   <si>
@@ -75,6 +72,24 @@
   </si>
   <si>
     <t>Xóa các cột có dữ liệu thiếu trên 50%,điền trung vị cho các cột có dữ liệu dưới 50% bị thiếu</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>Thêm các feature TotalLiving, Qual_LivArea, GarageScore, TotalAmenities, HouseAge</t>
+  </si>
+  <si>
+    <t>Xóa các dòng có dữ liệu thiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>V3_2</t>
+  </si>
+  <si>
+    <t>Thêm các feature Loc_Style_Cond (Kiểu nhà, khu vực, điều kiện căn nhà)</t>
   </si>
 </sst>
 </file>
@@ -453,17 +468,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D04272-26EA-43C9-810D-DDBF6A3663A5}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -499,7 +514,7 @@
         <v>0.40637000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -510,13 +525,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.61070000000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -527,16 +542,55 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0.35859999999999997</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.33740999999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0.17122000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
+++ b/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\challenge\House_Prices_Advanced_Regression_Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A3837-923F-48E6-B30D-D68B51E18D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159F691-8D7F-4FEA-BA29-76E7F1A6030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC850185-87C0-4159-BE0E-47F0A5872F9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Thêm các feature Loc_Style_Cond (Kiểu nhà, khu vực, điều kiện căn nhà)</t>
+  </si>
+  <si>
+    <t>V3_3</t>
+  </si>
+  <si>
+    <t>Thêm feature 'Qual_Exter_Overall'</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>RandomForestRegressor</t>
+  </si>
+  <si>
+    <t>Giống như trên</t>
   </si>
 </sst>
 </file>
@@ -471,12 +486,12 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -588,6 +603,40 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>0.15672</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0.14527000000000001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>15</v>

--- a/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
+++ b/challenge/House_Prices_Advanced_Regression_Techniques/Predict_House.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML\challenge\House_Prices_Advanced_Regression_Techniques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159F691-8D7F-4FEA-BA29-76E7F1A6030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4024949-0CA0-450C-82E8-E13373AAB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC850185-87C0-4159-BE0E-47F0A5872F9C}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.14527000000000001</v>
+        <v>0.14291000000000001</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
